--- a/cobertura_por_comuna.xlsx
+++ b/cobertura_por_comuna.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>824.1</v>
+        <v>38790.00000000001</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>598.6</v>
+        <v>27763.5</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>839.8</v>
+        <v>38790.00000000001</v>
       </c>
     </row>
   </sheetData>

--- a/cobertura_por_comuna.xlsx
+++ b/cobertura_por_comuna.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38790.00000000001</v>
+        <v>45990.00000000001</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27763.5</v>
+        <v>45990.00000000001</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38790.00000000001</v>
+        <v>45990.00000000001</v>
       </c>
     </row>
   </sheetData>

--- a/cobertura_por_comuna.xlsx
+++ b/cobertura_por_comuna.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45990.00000000001</v>
+        <v>39714.00000000001</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45990.00000000001</v>
+        <v>31998.00000000001</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45990.00000000001</v>
+        <v>41850.00000000001</v>
       </c>
     </row>
   </sheetData>
